--- a/artfynd/A 38334-2020.xlsx
+++ b/artfynd/A 38334-2020.xlsx
@@ -683,7 +683,7 @@
         <v>112331579</v>
       </c>
       <c r="B2" t="n">
-        <v>88189</v>
+        <v>88203</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>112331171</v>
       </c>
       <c r="B3" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 38334-2020.xlsx
+++ b/artfynd/A 38334-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112331579</v>
+        <v>112331171</v>
       </c>
       <c r="B2" t="n">
-        <v>88203</v>
+        <v>90800</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6286</v>
+        <v>3100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Torrmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma sudum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -724,7 +724,7 @@
         <v>748378</v>
       </c>
       <c r="R2" t="n">
-        <v>7537233</v>
+        <v>7537240</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112331171</v>
+        <v>112331579</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>88203</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3100</v>
+        <v>6286</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Torrmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma sudum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,7 +827,7 @@
         <v>748378</v>
       </c>
       <c r="R3" t="n">
-        <v>7537240</v>
+        <v>7537233</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -883,6 +883,109 @@
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112534860</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90808</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Esrangeåsen (Esrangeåsen), T lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>748912</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7537606</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
